--- a/downloads/Encounters_Dictionary.xlsx
+++ b/downloads/Encounters_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/Data_management/landbirds_project_maintenance/Reformatted_data/_Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Documents/GitHub/landbird-dp-workflow/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{84143070-D7A3-4A36-8CC3-D38BBAAB127B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D60A0A2-6FFD-4892-91BD-AB2768347487}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{84143070-D7A3-4A36-8CC3-D38BBAAB127B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3C2C53C-6F74-4C5E-ACD8-32BE2A4ABDCA}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10440" yWindow="3090" windowWidth="15765" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="209">
   <si>
     <t>codeName</t>
   </si>
@@ -997,27 +997,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6:M7"/>
+      <selection pane="bottomLeft" activeCell="I1" activeCellId="1" sqref="F1:F1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1015625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1015625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.3125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -1077,14 +1077,14 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
       <c r="J2">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1100,11 +1100,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -1120,11 +1120,11 @@
       <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1140,11 +1140,11 @@
       <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1160,8 +1160,8 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
+      <c r="F6" t="b">
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1186,8 +1186,8 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1212,11 +1212,11 @@
       <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1232,11 +1232,11 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1294,11 +1294,11 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -1384,11 +1384,11 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -1544,11 +1544,11 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -1648,11 +1648,11 @@
       <c r="E37" t="s">
         <v>15</v>
       </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1668,11 +1668,11 @@
       <c r="E38" t="s">
         <v>15</v>
       </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -1688,14 +1688,14 @@
       <c r="E39" t="s">
         <v>38</v>
       </c>
-      <c r="F39" t="s">
-        <v>17</v>
+      <c r="F39" t="b">
+        <v>1</v>
       </c>
       <c r="G39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -1711,14 +1711,14 @@
       <c r="E40" t="s">
         <v>38</v>
       </c>
-      <c r="F40" t="s">
-        <v>17</v>
+      <c r="F40" t="b">
+        <v>1</v>
       </c>
       <c r="G40" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>182</v>
       </c>
@@ -1734,11 +1734,11 @@
       <c r="E41" t="s">
         <v>53</v>
       </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>182</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -1782,11 +1782,11 @@
       <c r="E44" t="s">
         <v>15</v>
       </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -1802,11 +1802,11 @@
       <c r="E45" t="s">
         <v>15</v>
       </c>
-      <c r="F45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1878,11 +1878,11 @@
       <c r="E50" t="s">
         <v>15</v>
       </c>
-      <c r="F50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1898,11 +1898,11 @@
       <c r="E51" t="s">
         <v>15</v>
       </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -1974,11 +1974,11 @@
       <c r="E56" t="s">
         <v>15</v>
       </c>
-      <c r="F56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>163</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>163</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>163</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>163</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -2106,11 +2106,11 @@
       <c r="E65" t="s">
         <v>15</v>
       </c>
-      <c r="F65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -2182,11 +2182,11 @@
       <c r="E70" t="s">
         <v>15</v>
       </c>
-      <c r="F70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>144</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -2258,11 +2258,11 @@
       <c r="E75" t="s">
         <v>15</v>
       </c>
-      <c r="F75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>145</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>145</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>156</v>
       </c>
@@ -2348,11 +2348,11 @@
       <c r="E81" t="s">
         <v>15</v>
       </c>
-      <c r="F81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>156</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -2452,11 +2452,11 @@
       <c r="E88" t="s">
         <v>15</v>
       </c>
-      <c r="F88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>127</v>
       </c>
@@ -2472,8 +2472,8 @@
       <c r="E89" t="s">
         <v>15</v>
       </c>
-      <c r="F89" t="s">
-        <v>17</v>
+      <c r="F89" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2523,9 +2523,9 @@
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2541,202 +2541,202 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2747,6 +2747,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5270cfe5b55ea3ba0621c55bb260cb69">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f6d81c817a7b765436e9b6c5a88d8e2" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2961,36 +2976,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA5209D-AC5E-47D6-BDE1-DC1FA12E6F85}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD0FC99-4A9C-4418-97BD-C5AA74E03F40}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3013,9 +3002,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD0FC99-4A9C-4418-97BD-C5AA74E03F40}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CA5209D-AC5E-47D6-BDE1-DC1FA12E6F85}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>